--- a/data/train/GPTchat_positive_sentences.xlsx
+++ b/data/train/GPTchat_positive_sentences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperhewitt/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC5CCB3-FDE8-AD4C-B9C3-0BA3D5D10F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAED54E-F185-4047-8045-31759499F13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="3052">
   <si>
     <t xml:space="preserve"> 蔣萬安真的讓人感到欽佩！
 </t>
@@ -12099,6 +12099,12 @@
   <si>
     <t xml:space="preserve"> 他拥有可靠性，让他的同伴都能够受益，而他更能受到众人的敬仰。
 </t>
+  </si>
+  <si>
+    <t>他這個人很笨</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -12465,10 +12471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3072"/>
+  <dimension ref="A1:C3073"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3051" workbookViewId="0">
+      <selection activeCell="E3073" sqref="E3073"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46265,6 +46271,17 @@
         <v>1018</v>
       </c>
     </row>
+    <row r="3073" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3073" s="1">
+        <v>3076</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>3051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
